--- a/SchedulingData/static7/pso/scheduling1_7.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_7.xlsx
@@ -466,169 +466,169 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.7</v>
+        <v>38.3</v>
       </c>
       <c r="E2" t="n">
-        <v>26.1</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.24</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.876</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="E4" t="n">
-        <v>25.86</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.59999999999999</v>
+        <v>49.64</v>
       </c>
       <c r="E5" t="n">
-        <v>25.14</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43.24</v>
+        <v>70.5</v>
       </c>
       <c r="D6" t="n">
-        <v>122.48</v>
+        <v>145.9</v>
       </c>
       <c r="E6" t="n">
-        <v>23.532</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.32</v>
+        <v>69.84</v>
       </c>
       <c r="E7" t="n">
-        <v>20.668</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122.48</v>
+        <v>49.64</v>
       </c>
       <c r="D8" t="n">
-        <v>180.74</v>
+        <v>104.34</v>
       </c>
       <c r="E8" t="n">
-        <v>19.836</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>104.34</v>
       </c>
       <c r="D9" t="n">
-        <v>62.1</v>
+        <v>159.8</v>
       </c>
       <c r="E9" t="n">
-        <v>26.48</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>62.1</v>
+        <v>38.3</v>
       </c>
       <c r="D10" t="n">
-        <v>127.7</v>
+        <v>78.72</v>
       </c>
       <c r="E10" t="n">
-        <v>21.54</v>
+        <v>24.448</v>
       </c>
     </row>
     <row r="11">
@@ -637,131 +637,131 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180.74</v>
+        <v>69.84</v>
       </c>
       <c r="D11" t="n">
-        <v>228.56</v>
+        <v>127.14</v>
       </c>
       <c r="E11" t="n">
-        <v>16.184</v>
+        <v>24.016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>127.7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>179.04</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>18.516</v>
+        <v>26.928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.7</v>
+        <v>127.14</v>
       </c>
       <c r="D13" t="n">
-        <v>130.3</v>
+        <v>203.84</v>
       </c>
       <c r="E13" t="n">
-        <v>20.78</v>
+        <v>19.936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>179.04</v>
+        <v>159.8</v>
       </c>
       <c r="D14" t="n">
-        <v>229.54</v>
+        <v>215.7</v>
       </c>
       <c r="E14" t="n">
-        <v>14.596</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>141.32</v>
+        <v>78.72</v>
       </c>
       <c r="D15" t="n">
-        <v>187.16</v>
+        <v>137.12</v>
       </c>
       <c r="E15" t="n">
-        <v>17.704</v>
+        <v>20.728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>65.92</v>
+        <v>127.9</v>
       </c>
       <c r="E16" t="n">
-        <v>27.088</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>78.09999999999999</v>
+        <v>127.9</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6</v>
+        <v>178.52</v>
       </c>
       <c r="E17" t="n">
-        <v>22.34</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="18">
@@ -770,36 +770,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>144.6</v>
+        <v>215.7</v>
       </c>
       <c r="D18" t="n">
-        <v>218.98</v>
+        <v>302.3</v>
       </c>
       <c r="E18" t="n">
-        <v>18.512</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>228.56</v>
+        <v>137.12</v>
       </c>
       <c r="D19" t="n">
-        <v>323.76</v>
+        <v>193.58</v>
       </c>
       <c r="E19" t="n">
-        <v>11.244</v>
+        <v>17.192</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>218.98</v>
+        <v>302.3</v>
       </c>
       <c r="D20" t="n">
-        <v>272.1</v>
+        <v>373.56</v>
       </c>
       <c r="E20" t="n">
-        <v>14.82</v>
+        <v>7.864</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>130.3</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>195.5</v>
+        <v>135.54</v>
       </c>
       <c r="E21" t="n">
-        <v>17.86</v>
+        <v>23.236</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>195.5</v>
+        <v>193.58</v>
       </c>
       <c r="D22" t="n">
-        <v>287.88</v>
+        <v>262.28</v>
       </c>
       <c r="E22" t="n">
-        <v>12.712</v>
+        <v>13.412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>287.88</v>
+        <v>373.56</v>
       </c>
       <c r="D23" t="n">
-        <v>331.98</v>
+        <v>441.88</v>
       </c>
       <c r="E23" t="n">
-        <v>9.432</v>
+        <v>4.672</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>65.92</v>
+        <v>145.9</v>
       </c>
       <c r="D24" t="n">
-        <v>151.52</v>
+        <v>210.5</v>
       </c>
       <c r="E24" t="n">
-        <v>21.148</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>229.54</v>
+        <v>210.5</v>
       </c>
       <c r="D25" t="n">
-        <v>283.28</v>
+        <v>259.5</v>
       </c>
       <c r="E25" t="n">
-        <v>11.332</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="26">
@@ -922,74 +922,74 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>283.28</v>
+        <v>178.52</v>
       </c>
       <c r="D26" t="n">
-        <v>359.42</v>
+        <v>236.4</v>
       </c>
       <c r="E26" t="n">
-        <v>6.808</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>331.98</v>
+        <v>135.54</v>
       </c>
       <c r="D27" t="n">
-        <v>396.34</v>
+        <v>181.94</v>
       </c>
       <c r="E27" t="n">
-        <v>5.116</v>
+        <v>19.236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>323.76</v>
+        <v>262.28</v>
       </c>
       <c r="D28" t="n">
-        <v>379.86</v>
+        <v>344.98</v>
       </c>
       <c r="E28" t="n">
-        <v>7.764</v>
+        <v>9.252000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>272.1</v>
+        <v>344.98</v>
       </c>
       <c r="D29" t="n">
-        <v>327.1</v>
+        <v>401</v>
       </c>
       <c r="E29" t="n">
-        <v>11.46</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>187.16</v>
+        <v>181.94</v>
       </c>
       <c r="D30" t="n">
-        <v>266.74</v>
+        <v>223.48</v>
       </c>
       <c r="E30" t="n">
-        <v>13.336</v>
+        <v>16.212</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>266.74</v>
+        <v>223.48</v>
       </c>
       <c r="D31" t="n">
-        <v>345.68</v>
+        <v>308.68</v>
       </c>
       <c r="E31" t="n">
-        <v>9.071999999999999</v>
+        <v>11.272</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>345.68</v>
+        <v>308.68</v>
       </c>
       <c r="D32" t="n">
-        <v>413.88</v>
+        <v>388.78</v>
       </c>
       <c r="E32" t="n">
-        <v>5.352</v>
+        <v>7.352</v>
       </c>
     </row>
     <row r="33">
@@ -1055,55 +1055,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>151.52</v>
+        <v>259.5</v>
       </c>
       <c r="D33" t="n">
-        <v>221.68</v>
+        <v>311.32</v>
       </c>
       <c r="E33" t="n">
-        <v>16.732</v>
+        <v>10.468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>359.42</v>
+        <v>401</v>
       </c>
       <c r="D34" t="n">
-        <v>429.64</v>
+        <v>472.44</v>
       </c>
       <c r="E34" t="n">
-        <v>3.376</v>
+        <v>1.756</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>327.1</v>
+        <v>472.44</v>
       </c>
       <c r="D35" t="n">
-        <v>397.32</v>
+        <v>575.33</v>
       </c>
       <c r="E35" t="n">
-        <v>8.548</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>413.88</v>
+        <v>388.78</v>
       </c>
       <c r="D36" t="n">
-        <v>473.58</v>
+        <v>456.04</v>
       </c>
       <c r="E36" t="n">
-        <v>2.992</v>
+        <v>4.756</v>
       </c>
     </row>
     <row r="37">
@@ -1131,166 +1131,166 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>379.86</v>
+        <v>203.84</v>
       </c>
       <c r="D37" t="n">
-        <v>466.46</v>
+        <v>248.74</v>
       </c>
       <c r="E37" t="n">
-        <v>4.684</v>
+        <v>16.576</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>466.46</v>
+        <v>311.32</v>
       </c>
       <c r="D38" t="n">
-        <v>529.26</v>
+        <v>361.02</v>
       </c>
       <c r="E38" t="n">
-        <v>0.524</v>
+        <v>8.108000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>529.26</v>
+        <v>575.33</v>
       </c>
       <c r="D39" t="n">
-        <v>629.71</v>
+        <v>654.91</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>629.71</v>
+        <v>361.02</v>
       </c>
       <c r="D40" t="n">
-        <v>696.35</v>
+        <v>408.84</v>
       </c>
       <c r="E40" t="n">
-        <v>26.976</v>
+        <v>4.456</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>696.35</v>
+        <v>236.4</v>
       </c>
       <c r="D41" t="n">
-        <v>736.3099999999999</v>
+        <v>286.7</v>
       </c>
       <c r="E41" t="n">
-        <v>24.12</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>221.68</v>
+        <v>248.74</v>
       </c>
       <c r="D42" t="n">
-        <v>286.64</v>
+        <v>288.6</v>
       </c>
       <c r="E42" t="n">
-        <v>14.356</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>286.64</v>
+        <v>286.7</v>
       </c>
       <c r="D43" t="n">
-        <v>347.94</v>
+        <v>354.86</v>
       </c>
       <c r="E43" t="n">
-        <v>10.356</v>
+        <v>4.364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>396.34</v>
+        <v>456.04</v>
       </c>
       <c r="D44" t="n">
-        <v>435.02</v>
+        <v>527.64</v>
       </c>
       <c r="E44" t="n">
-        <v>2.388</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>429.64</v>
+        <v>527.64</v>
       </c>
       <c r="D45" t="n">
-        <v>499.69</v>
+        <v>621.77</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,21 +1298,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>499.69</v>
+        <v>288.6</v>
       </c>
       <c r="D46" t="n">
-        <v>554.49</v>
+        <v>345.14</v>
       </c>
       <c r="E46" t="n">
-        <v>26.22</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="47">
@@ -1321,169 +1321,169 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>397.32</v>
+        <v>441.88</v>
       </c>
       <c r="D47" t="n">
-        <v>445.02</v>
+        <v>510.62</v>
       </c>
       <c r="E47" t="n">
-        <v>5.908</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>347.94</v>
+        <v>510.62</v>
       </c>
       <c r="D48" t="n">
-        <v>410.04</v>
+        <v>580.66</v>
       </c>
       <c r="E48" t="n">
-        <v>6.276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>435.02</v>
+        <v>354.86</v>
       </c>
       <c r="D49" t="n">
-        <v>511.94</v>
+        <v>410.92</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>511.94</v>
+        <v>410.92</v>
       </c>
       <c r="D50" t="n">
-        <v>578.3</v>
+        <v>496.74</v>
       </c>
       <c r="E50" t="n">
-        <v>26.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>473.58</v>
+        <v>345.14</v>
       </c>
       <c r="D51" t="n">
-        <v>578.9</v>
+        <v>429.3</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>578.9</v>
+        <v>654.91</v>
       </c>
       <c r="D52" t="n">
-        <v>636.22</v>
+        <v>708.1900000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>26.928</v>
+        <v>23.444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>554.49</v>
+        <v>429.3</v>
       </c>
       <c r="D53" t="n">
-        <v>639.1900000000001</v>
+        <v>477.1</v>
       </c>
       <c r="E53" t="n">
-        <v>22.86</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>578.3</v>
+        <v>477.1</v>
       </c>
       <c r="D54" t="n">
-        <v>641.42</v>
+        <v>557.3200000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>22.832</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>639.1900000000001</v>
+        <v>557.3200000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>710.55</v>
+        <v>610.5599999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>19.324</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="56">
@@ -1492,150 +1492,150 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>410.04</v>
+        <v>408.84</v>
       </c>
       <c r="D56" t="n">
-        <v>473.84</v>
+        <v>487.48</v>
       </c>
       <c r="E56" t="n">
-        <v>2.496</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>636.22</v>
+        <v>487.48</v>
       </c>
       <c r="D57" t="n">
-        <v>683.34</v>
+        <v>566.9</v>
       </c>
       <c r="E57" t="n">
-        <v>23.856</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>641.42</v>
+        <v>496.74</v>
       </c>
       <c r="D58" t="n">
-        <v>713.1799999999999</v>
+        <v>562.78</v>
       </c>
       <c r="E58" t="n">
-        <v>19.296</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>445.02</v>
+        <v>562.78</v>
       </c>
       <c r="D59" t="n">
-        <v>493.86</v>
+        <v>597.9400000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>2.164</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>493.86</v>
+        <v>621.77</v>
       </c>
       <c r="D60" t="n">
-        <v>566.4299999999999</v>
+        <v>681.5700000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>566.4299999999999</v>
+        <v>566.9</v>
       </c>
       <c r="D61" t="n">
-        <v>633.99</v>
+        <v>622.8200000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>27.404</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>473.84</v>
+        <v>597.9400000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>545.65</v>
+        <v>672.52</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>20.292</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>545.65</v>
+        <v>610.5599999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>593.95</v>
+        <v>680.5599999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>27.36</v>
+        <v>22.016</v>
       </c>
     </row>
   </sheetData>
